--- a/WebRoot/templates/ex_card.xlsx
+++ b/WebRoot/templates/ex_card.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>批次</t>
   </si>
@@ -180,94 +180,106 @@
     <t>号卡名称</t>
   </si>
   <si>
+    <t>站点ID</t>
+  </si>
+  <si>
+    <t>站点名称</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>订单ID</t>
+  </si>
+  <si>
+    <t>发货时间</t>
+  </si>
+  <si>
+    <t>物流单号</t>
+  </si>
+  <si>
+    <t>物流公司</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${cards}" var="item"&gt;</t>
+  </si>
+  <si>
+    <t>${item.batch}</t>
+  </si>
+  <si>
+    <t>${item.province}</t>
+  </si>
+  <si>
+    <t>${item.iccid}</t>
+  </si>
+  <si>
+    <t>${item.type==0 ? "小白卡":"即买即通卡"}</t>
+  </si>
+  <si>
+    <t>${item.card_name}</t>
+  </si>
+  <si>
+    <t>${item.id}</t>
+  </si>
+  <si>
+    <t>${item.station_name}</t>
+  </si>
+  <si>
+    <t>${item.name}</t>
+  </si>
+  <si>
+    <t>${item.tel}</t>
+  </si>
+  <si>
+    <t>${item.address}</t>
+  </si>
+  <si>
+    <t>${item.success_order_id}</t>
+  </si>
+  <si>
+    <t>${item.send_time}</t>
+  </si>
+  <si>
+    <t>${item.express_number}</t>
+  </si>
+  <si>
+    <t>${item.express_name}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>${item.in_time}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.distribution_time}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.lose_efficacy}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>分配时间</t>
-  </si>
-  <si>
-    <t>站点ID</t>
-  </si>
-  <si>
-    <t>站点名称</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>订单ID</t>
-  </si>
-  <si>
-    <t>发货时间</t>
-  </si>
-  <si>
-    <t>物流单号</t>
-  </si>
-  <si>
-    <t>物流公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>失效时间</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${cards}" var="item"&gt;</t>
-  </si>
-  <si>
-    <t>${item.batch}</t>
-  </si>
-  <si>
-    <t>${item.province}</t>
-  </si>
-  <si>
-    <t>${item.iccid}</t>
-  </si>
-  <si>
-    <t>${item.type==0 ? "小白卡":"即买即通卡"}</t>
-  </si>
-  <si>
-    <t>${item.card_name}</t>
-  </si>
-  <si>
-    <t>${item.distribution_time}</t>
-  </si>
-  <si>
-    <t>${item.id}</t>
-  </si>
-  <si>
-    <t>${item.station_name}</t>
-  </si>
-  <si>
-    <t>${item.name}</t>
-  </si>
-  <si>
-    <t>${item.tel}</t>
-  </si>
-  <si>
-    <t>${item.address}</t>
-  </si>
-  <si>
-    <t>${item.success_order_id}</t>
-  </si>
-  <si>
-    <t>${item.send_time}</t>
-  </si>
-  <si>
-    <t>${item.express_number}</t>
-  </si>
-  <si>
-    <t>${item.express_name}</t>
-  </si>
-  <si>
-    <t>${item.sendcity}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>${item.in_time}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货城市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.send_city}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -688,7 +700,7 @@
     <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,42 +720,45 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17.25">
+      <c r="A2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -761,63 +776,67 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25">
+    <row r="3" spans="1:18" ht="17.25">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.25">
+      <c r="A4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -835,6 +854,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/WebRoot/templates/ex_card.xlsx
+++ b/WebRoot/templates/ex_card.xlsx
@@ -207,9 +207,6 @@
     <t>物流公司</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${cards}" var="item"&gt;</t>
-  </si>
-  <si>
     <t>${item.batch}</t>
   </si>
   <si>
@@ -280,6 +277,10 @@
   </si>
   <si>
     <t>${item.send_city}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${cards}" var="item"&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -690,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -720,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -753,12 +754,12 @@
         <v>14</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -780,63 +781,63 @@
     </row>
     <row r="3" spans="1:18" ht="17.25">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
